--- a/Excel/stocks-to-input.xlsx
+++ b/Excel/stocks-to-input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\OneDrive\A5\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F8419-7872-436A-93F6-FC9BED796FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{538F8419-7872-436A-93F6-FC9BED796FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8354F16D-0560-44DF-A4DE-D162796DC154}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="10692" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -28,9 +28,6 @@
     <t>quarters</t>
   </si>
   <si>
-    <t>ACE</t>
-  </si>
-  <si>
     <t>ADVANC</t>
   </si>
   <si>
@@ -61,12 +58,6 @@
     <t>BDMS</t>
   </si>
   <si>
-    <t>BEAUTY</t>
-  </si>
-  <si>
-    <t>BEM</t>
-  </si>
-  <si>
     <t>BGC</t>
   </si>
   <si>
@@ -76,21 +67,12 @@
     <t>BJC</t>
   </si>
   <si>
-    <t>BLA</t>
-  </si>
-  <si>
     <t>BPP</t>
   </si>
   <si>
     <t>CENTEL</t>
   </si>
   <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>COM7</t>
-  </si>
-  <si>
     <t>CPALL</t>
   </si>
   <si>
@@ -115,15 +97,9 @@
     <t>DCON</t>
   </si>
   <si>
-    <t>EA</t>
-  </si>
-  <si>
     <t>ECL</t>
   </si>
   <si>
-    <t>FSMART</t>
-  </si>
-  <si>
     <t>GFPT</t>
   </si>
   <si>
@@ -133,21 +109,9 @@
     <t>GUNKUL</t>
   </si>
   <si>
-    <t>HANA</t>
-  </si>
-  <si>
-    <t>HTC</t>
-  </si>
-  <si>
-    <t>ICHI</t>
-  </si>
-  <si>
     <t>ILM</t>
   </si>
   <si>
-    <t>IMH</t>
-  </si>
-  <si>
     <t>INTUCH</t>
   </si>
   <si>
@@ -157,9 +121,6 @@
     <t>KCE</t>
   </si>
   <si>
-    <t>KEX</t>
-  </si>
-  <si>
     <t>KGI</t>
   </si>
   <si>
@@ -172,15 +133,9 @@
     <t>LIT</t>
   </si>
   <si>
-    <t>LPN</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>MEGA</t>
-  </si>
-  <si>
     <t>ONEE</t>
   </si>
   <si>
@@ -193,18 +148,12 @@
     <t>PAP</t>
   </si>
   <si>
-    <t>PLANB</t>
-  </si>
-  <si>
     <t>POPF</t>
   </si>
   <si>
     <t>PREB</t>
   </si>
   <si>
-    <t>PRM</t>
-  </si>
-  <si>
     <t>PSH</t>
   </si>
   <si>
@@ -214,9 +163,6 @@
     <t>RJH</t>
   </si>
   <si>
-    <t>ROJNA</t>
-  </si>
-  <si>
     <t>SABUY</t>
   </si>
   <si>
@@ -226,9 +172,6 @@
     <t>SAT</t>
   </si>
   <si>
-    <t>SAWAD</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -238,12 +181,6 @@
     <t>SGP</t>
   </si>
   <si>
-    <t>SIRI</t>
-  </si>
-  <si>
-    <t>SJWD</t>
-  </si>
-  <si>
     <t>SKN</t>
   </si>
   <si>
@@ -253,30 +190,15 @@
     <t>SPALI</t>
   </si>
   <si>
-    <t>SPC</t>
-  </si>
-  <si>
-    <t>SPCG</t>
-  </si>
-  <si>
     <t>SPRIME</t>
   </si>
   <si>
-    <t>SSP</t>
-  </si>
-  <si>
     <t>TASCO</t>
   </si>
   <si>
     <t>THG</t>
   </si>
   <si>
-    <t>TIPCO</t>
-  </si>
-  <si>
-    <t>TIPH</t>
-  </si>
-  <si>
     <t>TK</t>
   </si>
   <si>
@@ -292,18 +214,9 @@
     <t>TOP</t>
   </si>
   <si>
-    <t>TPIPL</t>
-  </si>
-  <si>
-    <t>TQM</t>
-  </si>
-  <si>
     <t>TSE</t>
   </si>
   <si>
-    <t>TTA</t>
-  </si>
-  <si>
     <t>TTW</t>
   </si>
   <si>
@@ -311,9 +224,6 @@
   </si>
   <si>
     <t>UTP</t>
-  </si>
-  <si>
-    <t>VIBHA</t>
   </si>
   <si>
     <t>VNG</t>
@@ -682,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -887,7 +797,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -911,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -927,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -943,7 +853,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1023,7 +933,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1239,246 +1149,6 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99">
         <v>3</v>
       </c>
     </row>

--- a/Excel/stocks-to-input.xlsx
+++ b/Excel/stocks-to-input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{538F8419-7872-436A-93F6-FC9BED796FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8354F16D-0560-44DF-A4DE-D162796DC154}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{538F8419-7872-436A-93F6-FC9BED796FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88CF38B2-C712-4F82-9230-6A7056381E89}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2028" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -43,36 +43,18 @@
     <t>AP</t>
   </si>
   <si>
-    <t>ASIAN</t>
-  </si>
-  <si>
     <t>ASP</t>
   </si>
   <si>
-    <t>BAM</t>
-  </si>
-  <si>
     <t>BANPU</t>
   </si>
   <si>
-    <t>BDMS</t>
-  </si>
-  <si>
-    <t>BGC</t>
-  </si>
-  <si>
     <t>BGRIM</t>
   </si>
   <si>
-    <t>BJC</t>
-  </si>
-  <si>
     <t>BPP</t>
   </si>
   <si>
-    <t>CENTEL</t>
-  </si>
-  <si>
     <t>CPALL</t>
   </si>
   <si>
@@ -82,9 +64,6 @@
     <t>CPN</t>
   </si>
   <si>
-    <t>CPNCG</t>
-  </si>
-  <si>
     <t>CPNREIT</t>
   </si>
   <si>
@@ -103,12 +82,6 @@
     <t>GFPT</t>
   </si>
   <si>
-    <t>GRAMMY</t>
-  </si>
-  <si>
-    <t>GUNKUL</t>
-  </si>
-  <si>
     <t>ILM</t>
   </si>
   <si>
@@ -127,42 +100,24 @@
     <t>LALIN</t>
   </si>
   <si>
-    <t>LH</t>
-  </si>
-  <si>
     <t>LIT</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>ONEE</t>
   </si>
   <si>
     <t>OR</t>
   </si>
   <si>
-    <t>OSP</t>
-  </si>
-  <si>
     <t>PAP</t>
   </si>
   <si>
-    <t>POPF</t>
-  </si>
-  <si>
-    <t>PREB</t>
-  </si>
-  <si>
     <t>PSH</t>
   </si>
   <si>
     <t>RATCH</t>
   </si>
   <si>
-    <t>RJH</t>
-  </si>
-  <si>
     <t>SABUY</t>
   </si>
   <si>
@@ -172,40 +127,22 @@
     <t>SAT</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>SCCC</t>
   </si>
   <si>
-    <t>SGP</t>
-  </si>
-  <si>
     <t>SKN</t>
   </si>
   <si>
     <t>SKR</t>
   </si>
   <si>
-    <t>SPALI</t>
-  </si>
-  <si>
     <t>SPRIME</t>
   </si>
   <si>
-    <t>TASCO</t>
-  </si>
-  <si>
     <t>THG</t>
   </si>
   <si>
-    <t>TK</t>
-  </si>
-  <si>
     <t>TKN</t>
-  </si>
-  <si>
-    <t>TKS</t>
   </si>
   <si>
     <t>TMT</t>
@@ -305,6 +242,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -741,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -765,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -773,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -837,7 +778,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -981,174 +922,6 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
         <v>3</v>
       </c>
     </row>
